--- a/assets/rye_experiments.xlsx
+++ b/assets/rye_experiments.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mart2225\Documents\rye_salus\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mart2225\Documents\ryeSALUS\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C547034-C31B-45D5-8DF9-CA336044B0D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3901A91-9281-4CF6-B123-DBE1A0A32C99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1068" yWindow="-108" windowWidth="22080" windowHeight="13176" xr2:uid="{9639D746-5A75-418C-AB9F-6256B2EFC727}"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{9639D746-5A75-418C-AB9F-6256B2EFC727}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="soils" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="472">
   <si>
     <t>pub_reference</t>
   </si>
@@ -1124,6 +1127,330 @@
   </si>
   <si>
     <t>Validation</t>
+  </si>
+  <si>
+    <t>Obs_ID</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Columbia, MO</t>
+  </si>
+  <si>
+    <t>Moberly, MO</t>
+  </si>
+  <si>
+    <t>Urbana, IL</t>
+  </si>
+  <si>
+    <t>Rosemont, MN</t>
+  </si>
+  <si>
+    <t>Waseca, MN</t>
+  </si>
+  <si>
+    <t>StPaul, MN</t>
+  </si>
+  <si>
+    <t>StevensCounty, MN</t>
+  </si>
+  <si>
+    <t>Ames, IA</t>
+  </si>
+  <si>
+    <t>Kelley, IA</t>
+  </si>
+  <si>
+    <t>BelleMina, AL</t>
+  </si>
+  <si>
+    <t>Brownstown, IL</t>
+  </si>
+  <si>
+    <t>Lamberton, MN</t>
+  </si>
+  <si>
+    <t>NorthPlatte, NE</t>
+  </si>
+  <si>
+    <t>Ithaca, NE</t>
+  </si>
+  <si>
+    <t>Study</t>
+  </si>
+  <si>
+    <t>Planting</t>
+  </si>
+  <si>
+    <t>Termination</t>
+  </si>
+  <si>
+    <t>2012-9-11</t>
+  </si>
+  <si>
+    <t>2013-4-25</t>
+  </si>
+  <si>
+    <t>2013-9-12</t>
+  </si>
+  <si>
+    <t>2014-5-2</t>
+  </si>
+  <si>
+    <t>2014-9-10</t>
+  </si>
+  <si>
+    <t>2015-4-23</t>
+  </si>
+  <si>
+    <t>2004-10-1</t>
+  </si>
+  <si>
+    <t>2005-5-13</t>
+  </si>
+  <si>
+    <t>2005-10-1</t>
+  </si>
+  <si>
+    <t>2006-5-12</t>
+  </si>
+  <si>
+    <t>2006-10-1</t>
+  </si>
+  <si>
+    <t>2007-5-11</t>
+  </si>
+  <si>
+    <t>2001-10-25</t>
+  </si>
+  <si>
+    <t>2002-5-1</t>
+  </si>
+  <si>
+    <t>2002-5-8</t>
+  </si>
+  <si>
+    <t>2002-5-15</t>
+  </si>
+  <si>
+    <t>2002-5-22</t>
+  </si>
+  <si>
+    <t>2002-11-1</t>
+  </si>
+  <si>
+    <t>2003-5-13</t>
+  </si>
+  <si>
+    <t>2003-5-23</t>
+  </si>
+  <si>
+    <t>2003-6-2</t>
+  </si>
+  <si>
+    <t>2003-6-17</t>
+  </si>
+  <si>
+    <t>2001-10-18</t>
+  </si>
+  <si>
+    <t>2002-5-20</t>
+  </si>
+  <si>
+    <t>2002-5-28</t>
+  </si>
+  <si>
+    <t>2002-10-11</t>
+  </si>
+  <si>
+    <t>2003-5-1</t>
+  </si>
+  <si>
+    <t>2003-5-7</t>
+  </si>
+  <si>
+    <t>2003-5-14</t>
+  </si>
+  <si>
+    <t>2003-5-20</t>
+  </si>
+  <si>
+    <t>2000-9-18</t>
+  </si>
+  <si>
+    <t>2001-5-25</t>
+  </si>
+  <si>
+    <t>2009-9-2</t>
+  </si>
+  <si>
+    <t>2010-6-9</t>
+  </si>
+  <si>
+    <t>2010-9-20</t>
+  </si>
+  <si>
+    <t>2011-6-14</t>
+  </si>
+  <si>
+    <t>2001-9-20</t>
+  </si>
+  <si>
+    <t>2002-4-17</t>
+  </si>
+  <si>
+    <t>2002-9-10</t>
+  </si>
+  <si>
+    <t>2003-5-6</t>
+  </si>
+  <si>
+    <t>2003-10-2</t>
+  </si>
+  <si>
+    <t>2004-4-16</t>
+  </si>
+  <si>
+    <t>2004-10-6</t>
+  </si>
+  <si>
+    <t>2005-4-25</t>
+  </si>
+  <si>
+    <t>2005-9-30</t>
+  </si>
+  <si>
+    <t>2006-4-21</t>
+  </si>
+  <si>
+    <t>2006-10-24</t>
+  </si>
+  <si>
+    <t>2007-5-10</t>
+  </si>
+  <si>
+    <t>2007-9-28</t>
+  </si>
+  <si>
+    <t>2008-4-29</t>
+  </si>
+  <si>
+    <t>2008-10-29</t>
+  </si>
+  <si>
+    <t>2009-5-21</t>
+  </si>
+  <si>
+    <t>2009-9-28</t>
+  </si>
+  <si>
+    <t>2010-4-19</t>
+  </si>
+  <si>
+    <t>2008-10-21</t>
+  </si>
+  <si>
+    <t>2009-5-6</t>
+  </si>
+  <si>
+    <t>2009-11-6</t>
+  </si>
+  <si>
+    <t>2010-5-5</t>
+  </si>
+  <si>
+    <t>2010-10-4</t>
+  </si>
+  <si>
+    <t>2011-5-10</t>
+  </si>
+  <si>
+    <t>2011-10-10</t>
+  </si>
+  <si>
+    <t>2012-4-18</t>
+  </si>
+  <si>
+    <t>2012-10-15</t>
+  </si>
+  <si>
+    <t>2013-5-11</t>
+  </si>
+  <si>
+    <t>1999-10-19</t>
+  </si>
+  <si>
+    <t>2000-3-29</t>
+  </si>
+  <si>
+    <t>2001-10-30</t>
+  </si>
+  <si>
+    <t>2002-4-10</t>
+  </si>
+  <si>
+    <t>1998-10-3</t>
+  </si>
+  <si>
+    <t>1999-4-28</t>
+  </si>
+  <si>
+    <t>1999-10-2</t>
+  </si>
+  <si>
+    <t>2000-4-29</t>
+  </si>
+  <si>
+    <t>1998-10-1</t>
+  </si>
+  <si>
+    <t>1999-5-2</t>
+  </si>
+  <si>
+    <t>1999-10-5</t>
+  </si>
+  <si>
+    <t>2000-5-4</t>
+  </si>
+  <si>
+    <t>1999-4-30</t>
+  </si>
+  <si>
+    <t>1999-9-29</t>
+  </si>
+  <si>
+    <t>2000-4-11</t>
+  </si>
+  <si>
+    <t>2000-10-4</t>
+  </si>
+  <si>
+    <t>2001-5-16</t>
+  </si>
+  <si>
+    <t>2016-9-20</t>
+  </si>
+  <si>
+    <t>2017-4-18</t>
+  </si>
+  <si>
+    <t>2016-10-17</t>
+  </si>
+  <si>
+    <t>1994-9-20</t>
+  </si>
+  <si>
+    <t>1995-6-6</t>
+  </si>
+  <si>
+    <t>1995-9-20</t>
+  </si>
+  <si>
+    <t>1996-5-23</t>
+  </si>
+  <si>
+    <t>Biomass</t>
   </si>
 </sst>
 </file>
@@ -1178,7 +1505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1187,6 +1514,18 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1503,8 +1842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713D4F27-E10F-47FF-A008-BE44D3A07E97}">
   <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="Q52" sqref="Q52:Q59"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1512,8 +1851,8 @@
     <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="25.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.88671875" customWidth="1"/>
     <col min="10" max="10" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.109375" bestFit="1" customWidth="1"/>
@@ -1585,7 +1924,7 @@
         <v>142</v>
       </c>
       <c r="D2" t="str">
-        <f>_xlfn.CONCAT(C2,"_",M2,IF(E2="","",_xlfn.CONCAT("_",E2)))</f>
+        <f t="shared" ref="D2:D33" si="0">_xlfn.CONCAT(C2,"_",M2,IF(E2="","",_xlfn.CONCAT("_",E2)))</f>
         <v>Columbia_2013_RCC</v>
       </c>
       <c r="E2" t="s">
@@ -1636,7 +1975,7 @@
         <v>142</v>
       </c>
       <c r="D3" t="str">
-        <f>_xlfn.CONCAT(C3,"_",M3,IF(E3="","",_xlfn.CONCAT("_",E3)))</f>
+        <f t="shared" si="0"/>
         <v>Columbia_2014_RCC</v>
       </c>
       <c r="E3" t="s">
@@ -1690,7 +2029,7 @@
         <v>142</v>
       </c>
       <c r="D4" t="str">
-        <f>_xlfn.CONCAT(C4,"_",M4,IF(E4="","",_xlfn.CONCAT("_",E4)))</f>
+        <f t="shared" si="0"/>
         <v>Columbia_2015_RCC</v>
       </c>
       <c r="E4" t="s">
@@ -1741,7 +2080,7 @@
         <v>141</v>
       </c>
       <c r="D5" t="str">
-        <f>_xlfn.CONCAT(C5,"_",M5,IF(E5="","",_xlfn.CONCAT("_",E5)))</f>
+        <f t="shared" si="0"/>
         <v>Moberly_2014_RCC</v>
       </c>
       <c r="E5" t="s">
@@ -1792,7 +2131,7 @@
         <v>141</v>
       </c>
       <c r="D6" t="str">
-        <f>_xlfn.CONCAT(C6,"_",M6,IF(E6="","",_xlfn.CONCAT("_",E6)))</f>
+        <f t="shared" si="0"/>
         <v>Moberly_2015_RCC</v>
       </c>
       <c r="E6" t="s">
@@ -1843,7 +2182,7 @@
         <v>137</v>
       </c>
       <c r="D7" t="str">
-        <f>_xlfn.CONCAT(C7,"_",M7,IF(E7="","",_xlfn.CONCAT("_",E7)))</f>
+        <f t="shared" si="0"/>
         <v>Urbana_2005_RCC</v>
       </c>
       <c r="E7" t="s">
@@ -1897,7 +2236,7 @@
         <v>137</v>
       </c>
       <c r="D8" t="str">
-        <f>_xlfn.CONCAT(C8,"_",M8,IF(E8="","",_xlfn.CONCAT("_",E8)))</f>
+        <f t="shared" si="0"/>
         <v>Urbana_2006_RCC</v>
       </c>
       <c r="E8" t="s">
@@ -1951,7 +2290,7 @@
         <v>137</v>
       </c>
       <c r="D9" t="str">
-        <f>_xlfn.CONCAT(C9,"_",M9,IF(E9="","",_xlfn.CONCAT("_",E9)))</f>
+        <f t="shared" si="0"/>
         <v>Urbana_2007_RCC</v>
       </c>
       <c r="E9" t="s">
@@ -2005,7 +2344,7 @@
         <v>143</v>
       </c>
       <c r="D10" t="str">
-        <f>_xlfn.CONCAT(C10,"_",M10,IF(E10="","",_xlfn.CONCAT("_",E10)))</f>
+        <f t="shared" si="0"/>
         <v>Rosemont_2002_TD1</v>
       </c>
       <c r="E10" t="s">
@@ -2056,7 +2395,7 @@
         <v>143</v>
       </c>
       <c r="D11" t="str">
-        <f>_xlfn.CONCAT(C11,"_",M11,IF(E11="","",_xlfn.CONCAT("_",E11)))</f>
+        <f t="shared" si="0"/>
         <v>Rosemont_2002_TD2</v>
       </c>
       <c r="E11" t="s">
@@ -2107,7 +2446,7 @@
         <v>143</v>
       </c>
       <c r="D12" t="str">
-        <f>_xlfn.CONCAT(C12,"_",M12,IF(E12="","",_xlfn.CONCAT("_",E12)))</f>
+        <f t="shared" si="0"/>
         <v>Rosemont_2002_TD3</v>
       </c>
       <c r="E12" t="s">
@@ -2158,7 +2497,7 @@
         <v>143</v>
       </c>
       <c r="D13" t="str">
-        <f>_xlfn.CONCAT(C13,"_",M13,IF(E13="","",_xlfn.CONCAT("_",E13)))</f>
+        <f t="shared" si="0"/>
         <v>Rosemont_2002_TD4</v>
       </c>
       <c r="E13" t="s">
@@ -2209,7 +2548,7 @@
         <v>143</v>
       </c>
       <c r="D14" t="str">
-        <f>_xlfn.CONCAT(C14,"_",M14,IF(E14="","",_xlfn.CONCAT("_",E14)))</f>
+        <f t="shared" si="0"/>
         <v>Rosemont_2003_TD1</v>
       </c>
       <c r="E14" t="s">
@@ -2260,7 +2599,7 @@
         <v>143</v>
       </c>
       <c r="D15" t="str">
-        <f>_xlfn.CONCAT(C15,"_",M15,IF(E15="","",_xlfn.CONCAT("_",E15)))</f>
+        <f t="shared" si="0"/>
         <v>Rosemont_2003_TD2</v>
       </c>
       <c r="E15" t="s">
@@ -2311,7 +2650,7 @@
         <v>143</v>
       </c>
       <c r="D16" t="str">
-        <f>_xlfn.CONCAT(C16,"_",M16,IF(E16="","",_xlfn.CONCAT("_",E16)))</f>
+        <f t="shared" si="0"/>
         <v>Rosemont_2003_TD3</v>
       </c>
       <c r="E16" t="s">
@@ -2362,7 +2701,7 @@
         <v>143</v>
       </c>
       <c r="D17" t="str">
-        <f>_xlfn.CONCAT(C17,"_",M17,IF(E17="","",_xlfn.CONCAT("_",E17)))</f>
+        <f t="shared" si="0"/>
         <v>Rosemont_2003_TD4</v>
       </c>
       <c r="E17" t="s">
@@ -2413,7 +2752,7 @@
         <v>144</v>
       </c>
       <c r="D18" t="str">
-        <f>_xlfn.CONCAT(C18,"_",M18,IF(E18="","",_xlfn.CONCAT("_",E18)))</f>
+        <f t="shared" si="0"/>
         <v>Waseca_2002_TD1</v>
       </c>
       <c r="E18" t="s">
@@ -2464,7 +2803,7 @@
         <v>144</v>
       </c>
       <c r="D19" t="str">
-        <f>_xlfn.CONCAT(C19,"_",M19,IF(E19="","",_xlfn.CONCAT("_",E19)))</f>
+        <f t="shared" si="0"/>
         <v>Waseca_2002_TD2</v>
       </c>
       <c r="E19" t="s">
@@ -2515,7 +2854,7 @@
         <v>144</v>
       </c>
       <c r="D20" t="str">
-        <f>_xlfn.CONCAT(C20,"_",M20,IF(E20="","",_xlfn.CONCAT("_",E20)))</f>
+        <f t="shared" si="0"/>
         <v>Waseca_2002_TD3</v>
       </c>
       <c r="E20" t="s">
@@ -2566,7 +2905,7 @@
         <v>144</v>
       </c>
       <c r="D21" t="str">
-        <f>_xlfn.CONCAT(C21,"_",M21,IF(E21="","",_xlfn.CONCAT("_",E21)))</f>
+        <f t="shared" si="0"/>
         <v>Waseca_2002_TD4</v>
       </c>
       <c r="E21" t="s">
@@ -2617,7 +2956,7 @@
         <v>144</v>
       </c>
       <c r="D22" t="str">
-        <f>_xlfn.CONCAT(C22,"_",M22,IF(E22="","",_xlfn.CONCAT("_",E22)))</f>
+        <f t="shared" si="0"/>
         <v>Waseca_2003_TD1</v>
       </c>
       <c r="E22" t="s">
@@ -2668,7 +3007,7 @@
         <v>144</v>
       </c>
       <c r="D23" t="str">
-        <f>_xlfn.CONCAT(C23,"_",M23,IF(E23="","",_xlfn.CONCAT("_",E23)))</f>
+        <f t="shared" si="0"/>
         <v>Waseca_2003_TD2</v>
       </c>
       <c r="E23" t="s">
@@ -2719,7 +3058,7 @@
         <v>144</v>
       </c>
       <c r="D24" t="str">
-        <f>_xlfn.CONCAT(C24,"_",M24,IF(E24="","",_xlfn.CONCAT("_",E24)))</f>
+        <f t="shared" si="0"/>
         <v>Waseca_2003_TD3</v>
       </c>
       <c r="E24" t="s">
@@ -2770,7 +3109,7 @@
         <v>144</v>
       </c>
       <c r="D25" t="str">
-        <f>_xlfn.CONCAT(C25,"_",M25,IF(E25="","",_xlfn.CONCAT("_",E25)))</f>
+        <f t="shared" si="0"/>
         <v>Waseca_2003_TD4</v>
       </c>
       <c r="E25" t="s">
@@ -2821,7 +3160,7 @@
         <v>355</v>
       </c>
       <c r="D26" t="str">
-        <f>_xlfn.CONCAT(C26,"_",M26,IF(E26="","",_xlfn.CONCAT("_",E26)))</f>
+        <f t="shared" si="0"/>
         <v>StPaul_2001_RCC</v>
       </c>
       <c r="E26" t="s">
@@ -2872,7 +3211,7 @@
         <v>354</v>
       </c>
       <c r="D27" t="str">
-        <f>_xlfn.CONCAT(C27,"_",M27,IF(E27="","",_xlfn.CONCAT("_",E27)))</f>
+        <f t="shared" si="0"/>
         <v>StevensCounty_2010_RCC</v>
       </c>
       <c r="E27" t="s">
@@ -2926,7 +3265,7 @@
         <v>354</v>
       </c>
       <c r="D28" t="str">
-        <f>_xlfn.CONCAT(C28,"_",M28,IF(E28="","",_xlfn.CONCAT("_",E28)))</f>
+        <f t="shared" si="0"/>
         <v>StevensCounty_2011_RCC</v>
       </c>
       <c r="E28" t="s">
@@ -2980,7 +3319,7 @@
         <v>139</v>
       </c>
       <c r="D29" t="str">
-        <f>_xlfn.CONCAT(C29,"_",M29,IF(E29="","",_xlfn.CONCAT("_",E29)))</f>
+        <f t="shared" si="0"/>
         <v>Ames_2002_RCC</v>
       </c>
       <c r="E29" t="s">
@@ -3031,7 +3370,7 @@
         <v>139</v>
       </c>
       <c r="D30" t="str">
-        <f>_xlfn.CONCAT(C30,"_",M30,IF(E30="","",_xlfn.CONCAT("_",E30)))</f>
+        <f t="shared" si="0"/>
         <v>Ames_2003_RCC</v>
       </c>
       <c r="E30" t="s">
@@ -3082,7 +3421,7 @@
         <v>139</v>
       </c>
       <c r="D31" t="str">
-        <f>_xlfn.CONCAT(C31,"_",M31,IF(E31="","",_xlfn.CONCAT("_",E31)))</f>
+        <f t="shared" si="0"/>
         <v>Ames_2004_RCC</v>
       </c>
       <c r="E31" t="s">
@@ -3133,7 +3472,7 @@
         <v>139</v>
       </c>
       <c r="D32" t="str">
-        <f>_xlfn.CONCAT(C32,"_",M32,IF(E32="","",_xlfn.CONCAT("_",E32)))</f>
+        <f t="shared" si="0"/>
         <v>Ames_2005_RCC</v>
       </c>
       <c r="E32" t="s">
@@ -3184,7 +3523,7 @@
         <v>139</v>
       </c>
       <c r="D33" t="str">
-        <f>_xlfn.CONCAT(C33,"_",M33,IF(E33="","",_xlfn.CONCAT("_",E33)))</f>
+        <f t="shared" si="0"/>
         <v>Ames_2006_RCC</v>
       </c>
       <c r="E33" t="s">
@@ -3235,7 +3574,7 @@
         <v>139</v>
       </c>
       <c r="D34" t="str">
-        <f>_xlfn.CONCAT(C34,"_",M34,IF(E34="","",_xlfn.CONCAT("_",E34)))</f>
+        <f t="shared" ref="D34:D65" si="1">_xlfn.CONCAT(C34,"_",M34,IF(E34="","",_xlfn.CONCAT("_",E34)))</f>
         <v>Ames_2007_RCC</v>
       </c>
       <c r="E34" t="s">
@@ -3286,7 +3625,7 @@
         <v>139</v>
       </c>
       <c r="D35" t="str">
-        <f>_xlfn.CONCAT(C35,"_",M35,IF(E35="","",_xlfn.CONCAT("_",E35)))</f>
+        <f t="shared" si="1"/>
         <v>Ames_2008_RCC</v>
       </c>
       <c r="E35" t="s">
@@ -3337,7 +3676,7 @@
         <v>139</v>
       </c>
       <c r="D36" t="str">
-        <f>_xlfn.CONCAT(C36,"_",M36,IF(E36="","",_xlfn.CONCAT("_",E36)))</f>
+        <f t="shared" si="1"/>
         <v>Ames_2009_RCC</v>
       </c>
       <c r="E36" t="s">
@@ -3388,7 +3727,7 @@
         <v>139</v>
       </c>
       <c r="D37" t="str">
-        <f>_xlfn.CONCAT(C37,"_",M37,IF(E37="","",_xlfn.CONCAT("_",E37)))</f>
+        <f t="shared" si="1"/>
         <v>Ames_2010_RCC</v>
       </c>
       <c r="E37" t="s">
@@ -3439,7 +3778,7 @@
         <v>136</v>
       </c>
       <c r="D38" t="str">
-        <f>_xlfn.CONCAT(C38,"_",M38,IF(E38="","",_xlfn.CONCAT("_",E38)))</f>
+        <f t="shared" si="1"/>
         <v>Kelley_2009_RCC</v>
       </c>
       <c r="E38" t="s">
@@ -3487,7 +3826,7 @@
         <v>136</v>
       </c>
       <c r="D39" t="str">
-        <f>_xlfn.CONCAT(C39,"_",M39,IF(E39="","",_xlfn.CONCAT("_",E39)))</f>
+        <f t="shared" si="1"/>
         <v>Kelley_2010_RCC</v>
       </c>
       <c r="E39" t="s">
@@ -3535,7 +3874,7 @@
         <v>136</v>
       </c>
       <c r="D40" t="str">
-        <f>_xlfn.CONCAT(C40,"_",M40,IF(E40="","",_xlfn.CONCAT("_",E40)))</f>
+        <f t="shared" si="1"/>
         <v>Kelley_2011_RCC</v>
       </c>
       <c r="E40" t="s">
@@ -3583,7 +3922,7 @@
         <v>136</v>
       </c>
       <c r="D41" t="str">
-        <f>_xlfn.CONCAT(C41,"_",M41,IF(E41="","",_xlfn.CONCAT("_",E41)))</f>
+        <f t="shared" si="1"/>
         <v>Kelley_2012_RCC</v>
       </c>
       <c r="E41" t="s">
@@ -3631,7 +3970,7 @@
         <v>136</v>
       </c>
       <c r="D42" t="str">
-        <f>_xlfn.CONCAT(C42,"_",M42,IF(E42="","",_xlfn.CONCAT("_",E42)))</f>
+        <f t="shared" si="1"/>
         <v>Kelley_2013_RCC</v>
       </c>
       <c r="E42" t="s">
@@ -3679,7 +4018,7 @@
         <v>357</v>
       </c>
       <c r="D43" t="str">
-        <f>_xlfn.CONCAT(C43,"_",M43,IF(E43="","",_xlfn.CONCAT("_",E43)))</f>
+        <f t="shared" si="1"/>
         <v>BelleMina_2000_0N</v>
       </c>
       <c r="E43" t="s">
@@ -3730,7 +4069,7 @@
         <v>357</v>
       </c>
       <c r="D44" t="str">
-        <f>_xlfn.CONCAT(C44,"_",M44,IF(E44="","",_xlfn.CONCAT("_",E44)))</f>
+        <f t="shared" si="1"/>
         <v>BelleMina_2000_34N</v>
       </c>
       <c r="E44" t="s">
@@ -3781,7 +4120,7 @@
         <v>357</v>
       </c>
       <c r="D45" t="str">
-        <f>_xlfn.CONCAT(C45,"_",M45,IF(E45="","",_xlfn.CONCAT("_",E45)))</f>
+        <f t="shared" si="1"/>
         <v>BelleMina_2000_67N</v>
       </c>
       <c r="E45" t="s">
@@ -3832,7 +4171,7 @@
         <v>357</v>
       </c>
       <c r="D46" t="str">
-        <f>_xlfn.CONCAT(C46,"_",M46,IF(E46="","",_xlfn.CONCAT("_",E46)))</f>
+        <f t="shared" si="1"/>
         <v>BelleMina_2002_0N</v>
       </c>
       <c r="E46" t="s">
@@ -3883,7 +4222,7 @@
         <v>357</v>
       </c>
       <c r="D47" t="str">
-        <f>_xlfn.CONCAT(C47,"_",M47,IF(E47="","",_xlfn.CONCAT("_",E47)))</f>
+        <f t="shared" si="1"/>
         <v>BelleMina_2002_34N</v>
       </c>
       <c r="E47" t="s">
@@ -3934,7 +4273,7 @@
         <v>357</v>
       </c>
       <c r="D48" t="str">
-        <f>_xlfn.CONCAT(C48,"_",M48,IF(E48="","",_xlfn.CONCAT("_",E48)))</f>
+        <f t="shared" si="1"/>
         <v>BelleMina_2002_67N</v>
       </c>
       <c r="E48" t="s">
@@ -3985,7 +4324,7 @@
         <v>138</v>
       </c>
       <c r="D49" t="str">
-        <f>_xlfn.CONCAT(C49,"_",M49,IF(E49="","",_xlfn.CONCAT("_",E49)))</f>
+        <f t="shared" si="1"/>
         <v>Brownstown_1999_RCC</v>
       </c>
       <c r="E49" t="s">
@@ -4036,7 +4375,7 @@
         <v>138</v>
       </c>
       <c r="D50" t="str">
-        <f>_xlfn.CONCAT(C50,"_",M50,IF(E50="","",_xlfn.CONCAT("_",E50)))</f>
+        <f t="shared" si="1"/>
         <v>Brownstown_2000_RCC</v>
       </c>
       <c r="E50" t="s">
@@ -4087,7 +4426,7 @@
         <v>137</v>
       </c>
       <c r="D51" t="str">
-        <f>_xlfn.CONCAT(C51,"_",M51,IF(E51="","",_xlfn.CONCAT("_",E51)))</f>
+        <f t="shared" si="1"/>
         <v>Urbana_1999_RCC</v>
       </c>
       <c r="E51" t="s">
@@ -4138,7 +4477,7 @@
         <v>137</v>
       </c>
       <c r="D52" t="str">
-        <f>_xlfn.CONCAT(C52,"_",M52,IF(E52="","",_xlfn.CONCAT("_",E52)))</f>
+        <f t="shared" si="1"/>
         <v>Urbana_2000_RCC</v>
       </c>
       <c r="E52" t="s">
@@ -4189,7 +4528,7 @@
         <v>135</v>
       </c>
       <c r="D53" t="str">
-        <f>_xlfn.CONCAT(C53,"_",M53,IF(E53="","",_xlfn.CONCAT("_",E53)))</f>
+        <f t="shared" si="1"/>
         <v>Lamberton_1999_RCC</v>
       </c>
       <c r="E53" t="s">
@@ -4240,7 +4579,7 @@
         <v>135</v>
       </c>
       <c r="D54" t="str">
-        <f>_xlfn.CONCAT(C54,"_",M54,IF(E54="","",_xlfn.CONCAT("_",E54)))</f>
+        <f t="shared" si="1"/>
         <v>Lamberton_2000_RCC</v>
       </c>
       <c r="E54" t="s">
@@ -4291,7 +4630,7 @@
         <v>135</v>
       </c>
       <c r="D55" t="str">
-        <f>_xlfn.CONCAT(C55,"_",M55,IF(E55="","",_xlfn.CONCAT("_",E55)))</f>
+        <f t="shared" si="1"/>
         <v>Lamberton_2001_RCC</v>
       </c>
       <c r="E55" t="s">
@@ -4342,7 +4681,7 @@
         <v>356</v>
       </c>
       <c r="D56" t="str">
-        <f>_xlfn.CONCAT(C56,"_",M56,IF(E56="","",_xlfn.CONCAT("_",E56)))</f>
+        <f t="shared" si="1"/>
         <v>NorthPlatte_2017_PD1</v>
       </c>
       <c r="E56" t="s">
@@ -4393,7 +4732,7 @@
         <v>356</v>
       </c>
       <c r="D57" t="str">
-        <f>_xlfn.CONCAT(C57,"_",M57,IF(E57="","",_xlfn.CONCAT("_",E57)))</f>
+        <f t="shared" si="1"/>
         <v>NorthPlatte_2017_PD2</v>
       </c>
       <c r="E57" t="s">
@@ -4444,7 +4783,7 @@
         <v>140</v>
       </c>
       <c r="D58" t="str">
-        <f>_xlfn.CONCAT(C58,"_",M58,IF(E58="","",_xlfn.CONCAT("_",E58)))</f>
+        <f t="shared" si="1"/>
         <v>Ithaca_1995_RCC</v>
       </c>
       <c r="E58" t="s">
@@ -4495,7 +4834,7 @@
         <v>140</v>
       </c>
       <c r="D59" t="str">
-        <f>_xlfn.CONCAT(C59,"_",M59,IF(E59="","",_xlfn.CONCAT("_",E59)))</f>
+        <f t="shared" si="1"/>
         <v>Ithaca_1996_RCC</v>
       </c>
       <c r="E59" t="s">
@@ -4551,7 +4890,7 @@
   <dimension ref="A1:L89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A78" sqref="A78:XFD78"/>
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7955,4 +8294,1128 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F40A20-4312-4D46-ACBF-BFF3709D3860}">
+  <dimension ref="A1:G59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="G2" s="10">
+        <v>2.8919999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="G3" s="10">
+        <v>2.1930000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="G4" s="10">
+        <v>1.149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="G5" s="10">
+        <v>1.3859999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="G6" s="10">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="G7" s="10">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="G8" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="G9" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0.48899999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="G11" s="10">
+        <v>0.72799999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="G12" s="10">
+        <v>1.0329999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="G13" s="10">
+        <v>1.7969999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0.14699999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0.41399999999999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="G16" s="10">
+        <v>1.4239999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="10" t="s">
+        <v>400</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="G17" s="10">
+        <v>2.9279999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>396</v>
+      </c>
+      <c r="G18" s="10">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="G19" s="10">
+        <v>0.85099999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="8">
+        <v>19</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>406</v>
+      </c>
+      <c r="G20" s="10">
+        <v>2.1850000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="8">
+        <v>20</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="10" t="s">
+        <v>405</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="G21" s="10">
+        <v>3.7679999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="8">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="G22" s="10">
+        <v>0.151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="8">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="G23" s="10">
+        <v>0.222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="8">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="G24" s="10">
+        <v>0.52200000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="8">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="G25" s="10">
+        <v>0.98599999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="8">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="G26" s="10">
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="8">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="G27" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="8">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="G28" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="8">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="G29" s="10">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="8">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="G30" s="10">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="8">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="G31" s="10">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="8">
+        <v>31</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="G32" s="10">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="8">
+        <v>32</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="G33" s="10">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="8">
+        <v>33</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="G34" s="10">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="8">
+        <v>34</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="G35" s="10">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="8">
+        <v>35</v>
+      </c>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>434</v>
+      </c>
+      <c r="G36" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="8">
+        <v>36</v>
+      </c>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="G37" s="10">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="8">
+        <v>37</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="G38" s="10">
+        <v>0.36499999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="8">
+        <v>38</v>
+      </c>
+      <c r="B39" s="9"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="G39" s="10">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="8">
+        <v>39</v>
+      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="G40" s="10">
+        <v>1.532</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="8">
+        <v>40</v>
+      </c>
+      <c r="B41" s="9"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>444</v>
+      </c>
+      <c r="G41" s="10">
+        <v>2.4990000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="8">
+        <v>41</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="G42" s="10">
+        <v>0.497</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="8">
+        <v>42</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="G43" s="10">
+        <v>4.6950000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="8">
+        <v>43</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="G44" s="10">
+        <v>5.1059999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="8">
+        <v>44</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="G45" s="10">
+        <v>7.4740000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="8">
+        <v>45</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="G46" s="10">
+        <v>2.6869999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="8">
+        <v>46</v>
+      </c>
+      <c r="B47" s="9"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="G47" s="10">
+        <v>4.4800000000000004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="8">
+        <v>47</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="10" t="s">
+        <v>449</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="G48" s="10">
+        <v>5.4359999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="8">
+        <v>48</v>
+      </c>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="G49" s="10">
+        <v>4.734</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="8">
+        <v>49</v>
+      </c>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>454</v>
+      </c>
+      <c r="G50" s="10">
+        <v>2.9239999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="8">
+        <v>50</v>
+      </c>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="G51" s="10">
+        <v>4.016</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="8">
+        <v>51</v>
+      </c>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="G52" s="10">
+        <v>3.1549999999999998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="8">
+        <v>52</v>
+      </c>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>455</v>
+      </c>
+      <c r="F53" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="G53" s="10">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="8">
+        <v>53</v>
+      </c>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="G54" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="8">
+        <v>54</v>
+      </c>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="F55" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="G55" s="10">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="8">
+        <v>55</v>
+      </c>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="G56" s="10">
+        <v>4.0810000000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="8">
+        <v>56</v>
+      </c>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="10" t="s">
+        <v>466</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>465</v>
+      </c>
+      <c r="G57" s="10">
+        <v>3.766</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="8">
+        <v>57</v>
+      </c>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="G58" s="10">
+        <v>6.31</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="8">
+        <v>58</v>
+      </c>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="G59" s="10">
+        <v>2.89</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="D38:D42"/>
+    <mergeCell ref="D43:D48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="D53:D55"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="B2:B32"/>
+    <mergeCell ref="B33:B59"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="D10:D17"/>
+    <mergeCell ref="D18:D25"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="D33:D37"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="C43:C48"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="C53:C55"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C25"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="C33:C37"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>